--- a/Resources/Features.xlsx
+++ b/Resources/Features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Carleton\Neural_Network_Charity_Analysis\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B675B7-5F3A-47A3-91CF-465A0ED3388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55D7D9E-BD6E-4AFB-812B-DF449C2A5EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Everything" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Features" sheetId="2" r:id="rId4"/>
     <sheet name="Dropped Early" sheetId="7" r:id="rId5"/>
     <sheet name="Dropped Later" sheetId="6" r:id="rId6"/>
+    <sheet name="Dropped Different" sheetId="8" r:id="rId7"/>
+    <sheet name="Results" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>EIN</t>
   </si>
@@ -194,14 +196,77 @@
     <t>Column Name</t>
   </si>
   <si>
-    <t>Unique Value</t>
+    <t>Unique Values</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Layer 1</t>
+  </si>
+  <si>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t>Layer 3</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>More Nodes &amp; Layers</t>
+  </si>
+  <si>
+    <t>Change Activation</t>
+  </si>
+  <si>
+    <t>Remove Noisy Variables</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Outer</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>Relu</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Trainable</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Remove Different Variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,16 +280,43 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -232,14 +324,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,142 +739,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEE0793-95F1-440C-A257-475CB49D2E97}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>34299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>19568</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>8747</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69155C-4452-47E2-974B-59D94B994D5F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -667,69 +940,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535A32DC-E751-4735-AE73-22A388BA75F8}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B8" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,359 +1043,368 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7729AFF3-B6B2-4A8C-A9A8-44406876F44E}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B17"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B44" sqref="A1:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="5">
         <v>8747</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="12">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1101,64 +1415,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E1776A-09F7-4C6B-A900-48E6E2BE1D21}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2</v>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>34299</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>19568</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,66 +1498,462 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87865E5A-B4DA-4E7C-8D9E-6A8231852961}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF010ED8-9ECD-4F01-ABC2-88B68461C80C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D870711-D019-4B25-9845-35D26FD849FA}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="A1:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="16">
+        <v>80</v>
+      </c>
+      <c r="C3" s="16">
+        <v>30</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5981</v>
+      </c>
+      <c r="K3" s="16">
+        <v>5981</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="16">
+        <v>80</v>
+      </c>
+      <c r="C4" s="16">
+        <v>30</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5501</v>
+      </c>
+      <c r="K4" s="16">
+        <v>5501</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="16">
+        <v>80</v>
+      </c>
+      <c r="C5" s="16">
+        <v>30</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5981</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5981</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.69</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="16">
+        <v>86</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43</v>
+      </c>
+      <c r="D6" s="16">
+        <v>21</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="16">
+        <v>8471</v>
+      </c>
+      <c r="K6" s="16">
+        <v>8471</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="16">
+        <v>80</v>
+      </c>
+      <c r="C7" s="16">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="16">
+        <v>5981</v>
+      </c>
+      <c r="K7" s="16">
+        <v>5981</v>
+      </c>
+      <c r="L7" s="16">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M7">
+    <sortCondition ref="L3:L7"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>